--- a/DenisAsenov/Lesson 8/Wrong picture in Dubai destination.xlsx
+++ b/DenisAsenov/Lesson 8/Wrong picture in Dubai destination.xlsx
@@ -203,13 +203,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,7 +560,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,18 +572,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -685,7 +685,7 @@
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="6">
         <v>43404</v>
       </c>
     </row>
